--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>912301.521443043</v>
+        <v>947060.3870157643</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18146847.35069214</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2084488.700652242</v>
+        <v>606553.2040797163</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6791626.001651427</v>
+        <v>7320760.852686135</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>383.3069684452365</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>47.31231422130926</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>122.9229677259524</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -896,19 +898,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>127.0895102682142</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>102.7176563887153</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>82.62483121292163</v>
+        <v>199.420139880479</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>160.6139055414026</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.9526314527267</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.2666242787488</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1376,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V11" t="n">
-        <v>184.3625001984236</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.1838601509835</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>210.4445155808937</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>29.92029206558524</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>324.6307675483191</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>48.38806639661043</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>157.882488064989</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>48.28314334362814</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2956,10 +2958,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900534</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>22.2853439284767</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,10 +3198,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,10 +3480,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>134.9254647561321</v>
       </c>
       <c r="V37" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3560,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170844</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>174.5196730113422</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>289.3040482197699</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>145.8285166974206</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>24.40703109723333</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>3.477816687685649</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4144,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>39.57637241135514</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2139.946552541567</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C2" t="n">
         <v>1752.767796536277</v>
@@ -4319,61 +4321,61 @@
         <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2585.593902066702</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X2" t="n">
-        <v>2570.491842686417</v>
+        <v>2621.455559497705</v>
       </c>
       <c r="Y2" t="n">
-        <v>2162.20571898607</v>
+        <v>2213.169435797358</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C4" t="n">
-        <v>617.3126187870138</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1072.643441777775</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C5" t="n">
-        <v>944.2701990826091</v>
+        <v>210.7177913537674</v>
       </c>
       <c r="D5" t="n">
-        <v>912.4008182974577</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>478.6260734557529</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.186649932281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.186649932281</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W5" t="n">
-        <v>1922.331195343315</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1503.188731922625</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1498.943012262683</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392439</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2405.942210967199</v>
+        <v>2468.626341703672</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>2190.193340956777</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.189889357998</v>
+        <v>707.7581132933932</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.047416541422</v>
+        <v>269.6156404768165</v>
       </c>
       <c r="D8" t="n">
-        <v>917.1376317158661</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>483.3628868741612</v>
+        <v>77.64503145187678</v>
       </c>
       <c r="F8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>490.7501447362868</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>685.6074456934142</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>685.6074456934142</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>685.6074456934142</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>685.6074456934142</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1372.363729575105</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2059.120013456795</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2605.61879941539</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2774.772864168447</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2774.772864168447</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2774.772864168447</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V8" t="n">
-        <v>2774.772864168447</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W8" t="n">
-        <v>2369.917409579481</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>2354.815350199196</v>
+        <v>1542.343807478648</v>
       </c>
       <c r="Y8" t="n">
-        <v>2217.489459842906</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.6672022746617</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>455.210741111304</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>360.1204522578573</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>266.000037584811</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.6161992009726</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>97.23110946715647</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>81.55913044382655</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>234.0726367157701</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>914.8061567861474</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>914.8061567861474</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>914.8061567861474</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N9" t="n">
-        <v>914.8061567861474</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1601.562440667838</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1601.562440667838</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.562440667838</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.735218762178</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1655.279781210561</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1525.101137541162</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.764590541131</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.64707260313</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>964.324318336324</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.4568825752041</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.9711033544248</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>829.0601686114526</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C10" t="n">
-        <v>656.4984570946775</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D10" t="n">
-        <v>490.6204642962002</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E10" t="n">
-        <v>320.8624605469374</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F10" t="n">
-        <v>144.1554065086936</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="G10" t="n">
-        <v>144.1554065086936</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="H10" t="n">
-        <v>144.1554065086936</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>142.0751424480588</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.8335970191944</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>835.0434787871554</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.527345968068</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.786149125713</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.455398351494</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.962292321836</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2672.155067186169</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2650.737245891541</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2491.495877189537</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2245.616430767992</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>1967.183430021098</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1680.227921891528</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.20151747782</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.809762811232</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>935.3900921253403</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>929.9645042983611</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>491.8220314817844</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>55.91224665622894</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>55.91224665622894</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>55.91224665622894</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>55.91224665622894</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91224665622894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>490.7501447362868</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1177.506428617977</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.506428617977</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1177.506428617977</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>1372.363729575105</v>
+        <v>2489.106062166397</v>
       </c>
       <c r="O11" t="n">
-        <v>1372.363729575105</v>
+        <v>3469.285728736703</v>
       </c>
       <c r="P11" t="n">
-        <v>2059.120013456795</v>
+        <v>4297.595603570099</v>
       </c>
       <c r="Q11" t="n">
-        <v>2605.61879941539</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2774.772864168447</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>2588.548116493272</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>2183.692661904305</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1764.550198483616</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1356.264074783269</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>55.49545728336894</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L12" t="n">
-        <v>55.49545728336894</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>55.49545728336894</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>55.49545728336894</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>374.0672181540718</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.823502035762</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>968.6756250967729</v>
+        <v>1154.323924157457</v>
       </c>
       <c r="C13" t="n">
-        <v>796.1139135799979</v>
+        <v>981.7622126406815</v>
       </c>
       <c r="D13" t="n">
-        <v>796.1139135799979</v>
+        <v>815.8842198422042</v>
       </c>
       <c r="E13" t="n">
-        <v>626.3559098307352</v>
+        <v>646.1262160929414</v>
       </c>
       <c r="F13" t="n">
-        <v>449.6488557924914</v>
+        <v>469.4191620546976</v>
       </c>
       <c r="G13" t="n">
-        <v>284.0575808183191</v>
+        <v>303.8278870805253</v>
       </c>
       <c r="H13" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2404.857799469996</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2192.287581711517</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.332073581948</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1633.305669168239</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.913914501652</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1160.49424381576</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1615.707972884149</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1615.707972884149</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1179.798188058594</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>746.0234432168888</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>746.0234432168888</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>344.6256118401527</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>55.49545728336894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>55.49545728336894</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>55.49545728336894</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>742.2517411650596</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1401.260296405066</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="N14" t="n">
-        <v>2088.016580286757</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="O14" t="n">
-        <v>2774.772864168447</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2774.772864168447</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2774.772864168447</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2774.772864168447</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>2774.772864168447</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V14" t="n">
-        <v>2774.772864168447</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>2369.917409579481</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>2042.007543369057</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2042.007543369057</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>81.55913044382655</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.1174554100389</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.9919063784752</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>961.9919063784752</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>796.1139135799979</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>626.3559098307352</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>449.6488557924914</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>284.0575808183191</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.913698484165</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.036863740114</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2185.60386299322</v>
+        <v>2124.413812131771</v>
       </c>
       <c r="V16" t="n">
-        <v>1898.64835486365</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="W16" t="n">
-        <v>1626.621950449942</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X16" t="n">
-        <v>1381.230195783354</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1153.810525097462</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5513,37 +5515,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5786,16 +5788,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6406,22 +6408,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
         <v>1371.99516675259</v>
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.0677766831641</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>754.506065166389</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6280723679117</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>418.8700686186489</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.992180466348</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2429.112734044803</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.679733297909</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.724225168339</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.697820754631</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.306066088043</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.886395402151</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2758.053686176683</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>414.500552094942</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6844,7 +6846,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y37" t="n">
         <v>1373.137619601648</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7175,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7208,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731432</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238804</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856366</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,49 +7335,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>493.6379300999456</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C41" t="n">
-        <v>55.49545728336894</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D41" t="n">
-        <v>55.49545728336894</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E41" t="n">
-        <v>55.49545728336894</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F41" t="n">
-        <v>55.49545728336894</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>55.49545728336894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H41" t="n">
-        <v>55.49545728336894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>55.49545728336894</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>55.49545728336894</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>55.49545728336894</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N41" t="n">
-        <v>742.2517411650596</v>
+        <v>3128.911340966338</v>
       </c>
       <c r="O41" t="n">
-        <v>1372.363729575105</v>
+        <v>4109.091007536645</v>
       </c>
       <c r="P41" t="n">
-        <v>2059.120013456795</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q41" t="n">
-        <v>2605.61879941539</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2691.120990352284</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2514.838492361029</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2514.838492361029</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2152.221542294856</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>1747.366087705889</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>1328.2236242852</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y41" t="n">
-        <v>919.9375005848534</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.6672022746617</v>
+        <v>3531.436949455166</v>
       </c>
       <c r="C42" t="n">
-        <v>455.210741111304</v>
+        <v>3424.980488291808</v>
       </c>
       <c r="D42" t="n">
-        <v>360.1204522578573</v>
+        <v>3329.890199438361</v>
       </c>
       <c r="E42" t="n">
-        <v>266.000037584811</v>
+        <v>3235.769784765315</v>
       </c>
       <c r="F42" t="n">
-        <v>182.6161992009726</v>
+        <v>3152.385946381477</v>
       </c>
       <c r="G42" t="n">
-        <v>97.23110946715647</v>
+        <v>3067.000856647661</v>
       </c>
       <c r="H42" t="n">
-        <v>55.49545728336894</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="I42" t="n">
-        <v>81.55913044382655</v>
+        <v>3051.328877624331</v>
       </c>
       <c r="J42" t="n">
-        <v>81.55913044382655</v>
+        <v>3375.887202590544</v>
       </c>
       <c r="K42" t="n">
-        <v>81.55913044382655</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="L42" t="n">
-        <v>81.55913044382655</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="M42" t="n">
-        <v>768.3154143255172</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="N42" t="n">
-        <v>1455.071698207208</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="O42" t="n">
-        <v>1455.071698207208</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="P42" t="n">
-        <v>1455.071698207208</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="Q42" t="n">
-        <v>1601.562440667838</v>
+        <v>4571.332187848342</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.735218762178</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.279781210561</v>
+        <v>4625.049528391065</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.101137541162</v>
+        <v>4494.870884721667</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.764590541131</v>
+        <v>4318.534337721635</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.64707260313</v>
+        <v>4119.416819783634</v>
       </c>
       <c r="W42" t="n">
-        <v>964.324318336324</v>
+        <v>3934.094065516828</v>
       </c>
       <c r="X42" t="n">
-        <v>809.4568825752041</v>
+        <v>3779.226629755708</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.9711033544248</v>
+        <v>3652.740850534929</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>935.3900921253403</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>762.8283806085652</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>596.9503878100879</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>596.9503878100879</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>449.6488557924914</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>284.0575808183191</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>144.1554065086936</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2650.737245891541</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2491.495877189537</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.616430767992</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.183430021098</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.227921891528</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.20151747782</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.809762811232</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>935.3900921253403</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>941.7911984807482</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>941.7911984807482</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>917.1376317158661</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>483.3628868741612</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>55.49545728336894</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>55.49545728336894</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>490.7501447362868</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1177.506428617977</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1864.262712499668</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1864.262712499668</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>1864.262712499668</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>2059.120013456795</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>2059.120013456795</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2605.61879941539</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2554.705637041486</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2554.705637041486</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2192.088686975312</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>1787.233232386345</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>1368.090768965656</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1368.090768965656</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>81.55913044382655</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>406.1174554100389</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1086.850975480416</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>743.5714734063531</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>571.009761889578</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>405.1317690911008</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>235.373765341838</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>195.3976315929944</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>195.3976315929944</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2491.495877189537</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.616430767992</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.183430021098</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.227921891528</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.20151747782</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1162.809762811232</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>935.3900921253403</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941941</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>196.8255565223509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>693.6932160421118</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,22 +8531,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>154.054046739337</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>196.825556522351</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>394.8579417904875</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>665.6652073131379</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="N14" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>693.6932160421115</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>288.7351832965069</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>753.9218057523904</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,25 +10825,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>693.6932160421118</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4767559697427</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>693.6932160421118</v>
+        <v>585.2666246525632</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.9704469299297</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>196.825556522351</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V11" t="n">
-        <v>174.6282803670881</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.31929241554573</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>65.20415515853199</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>329.0704884999265</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>90.32027123816329</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>195.0325855607189</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>117.7661826744367</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>90.22000922290108</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.19697732171672</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="V37" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>43.34688184434953</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>125.6469905667125</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.11146680044078</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>407.1436558800665</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>411.4732220987967</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>633925.6476007147</v>
+        <v>632894.2869138726</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425069.3091856916</v>
+        <v>606491.5084797811</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425069.3091856915</v>
+        <v>606491.5084797811</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646737.7084496378</v>
+        <v>646737.7084496379</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425069.3091856916</v>
+        <v>606491.508479781</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425069.3091856916</v>
+        <v>606491.5084797811</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>348495.7579287656</v>
+      </c>
+      <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
-      <c r="C2" t="n">
-        <v>348495.7579287655</v>
-      </c>
-      <c r="D2" t="n">
-        <v>348495.7579287655</v>
-      </c>
       <c r="E2" t="n">
-        <v>225080.6488653429</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>225080.6488653428</v>
+        <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="J2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
-        <v>225080.6488653429</v>
+        <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>225080.6488653428</v>
+        <v>321146.456142557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8131.675070562576</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>160221.1249513057</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6625.418585724987</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>153064.7602253942</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>44693.55886992045</v>
+        <v>63769.04507708548</v>
       </c>
       <c r="F4" t="n">
-        <v>44693.55886992046</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933279</v>
@@ -26436,28 +26438,28 @@
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="N4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="J4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933281</v>
-      </c>
       <c r="O4" t="n">
-        <v>44693.55886992045</v>
+        <v>63769.04507708547</v>
       </c>
       <c r="P4" t="n">
-        <v>44693.55886992046</v>
+        <v>63769.04507708547</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75804.14753536039</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106053.106469711</v>
+        <v>-106053.1064697108</v>
       </c>
       <c r="C6" t="n">
+        <v>117646.5921143341</v>
+      </c>
+      <c r="D6" t="n">
         <v>117646.592114334</v>
       </c>
-      <c r="D6" t="n">
-        <v>111495.1750974483</v>
-      </c>
       <c r="E6" t="n">
-        <v>138210.542460062</v>
+        <v>35446.38201139506</v>
       </c>
       <c r="F6" t="n">
-        <v>138210.542460062</v>
+        <v>186112.1355831427</v>
       </c>
       <c r="G6" t="n">
-        <v>36517.36784284795</v>
+        <v>167648.6836215458</v>
       </c>
       <c r="H6" t="n">
         <v>196738.4927941537</v>
@@ -26543,25 +26545,25 @@
         <v>196738.4927941537</v>
       </c>
       <c r="J6" t="n">
-        <v>22087.1440764475</v>
+        <v>22087.14407644753</v>
       </c>
       <c r="K6" t="n">
         <v>196738.4927941537</v>
       </c>
       <c r="L6" t="n">
-        <v>190113.0742084287</v>
+        <v>196738.4927941536</v>
       </c>
       <c r="M6" t="n">
-        <v>196738.4927941537</v>
+        <v>70987.40445846308</v>
       </c>
       <c r="N6" t="n">
         <v>196738.4927941537</v>
       </c>
       <c r="O6" t="n">
-        <v>138210.5424600621</v>
+        <v>186112.1355831428</v>
       </c>
       <c r="P6" t="n">
-        <v>138210.542460062</v>
+        <v>186112.1355831427</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>693.6932160421118</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425482</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50.4540796431744</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27442,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>367.6387245651731</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>47.91312667565487</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>306.6715378201967</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>328.8330305885846</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>160.7958207444076</v>
+        <v>44.00051207685024</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>270.9367814358973</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>268.2506310106164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.63380825304841</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941941</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>196.8255565223509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>693.6932160421118</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>154.054046739337</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>540.0049805212332</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>196.825556522351</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>394.8579417904875</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>665.6652073131379</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="N14" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>693.6932160421115</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>288.7351832965069</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>753.9218057523904</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37323,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>693.6932160421118</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4767559697427</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>693.6932160421118</v>
+        <v>585.2666246525632</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.9704469299297</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>196.825556522351</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947060.3870157643</v>
+        <v>946454.2993868664</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797163</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>100.5603279520342</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>47.31231422130926</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598887</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>102.7176563887153</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>287.3841776944312</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>199.420139880479</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>422.1126624218246</v>
       </c>
       <c r="D8" t="n">
-        <v>160.6139055414026</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>90.30617524481245</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>19.66484339937357</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.4261460119187</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>120.1838601509835</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>29.92029206558524</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>157.882488064989</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>48.28314334362814</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2295,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2958,13 +2958,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>119.8634463900534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3006,13 +3006,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>179.0861311466703</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>107.574226033415</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,7 +3480,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>134.9254647561321</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170844</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>92.21956428898119</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>289.3040482197699</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.13954148002301</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>14.14416275345373</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>3.477816687685649</v>
+        <v>220.9317500642478</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225759</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1786.86986531245</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.767796536277</v>
+        <v>498.0856156503999</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4348,10 +4348,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.455559497705</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y2" t="n">
-        <v>2213.169435797358</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705998</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705998</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703441</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C5" t="n">
-        <v>210.7177913537674</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901678</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4573,46 +4573,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365255</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355599</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655252</v>
+        <v>1003.690796339814</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.5813843420327</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2468.626341703672</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2190.193340956777</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.237832827208</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.211428413499</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1385.819673746912</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.40000306102</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>707.7581132933932</v>
+        <v>565.2083903541807</v>
       </c>
       <c r="C8" t="n">
-        <v>269.6156404768165</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4822,10 +4822,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488304</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.486270899337</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.343807478648</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1134.057683778301</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4892,16 +4892,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870971</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>233.2795245870971</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>233.2795245870971</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
         <v>1646.357049057731</v>
@@ -5035,10 +5035,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2489.106062166397</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3469.285728736703</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>4297.595603570099</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,19 +5114,19 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1154.323924157457</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>981.7622126406815</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>815.8842198422042</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>646.1262160929414</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>469.4191620546976</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>303.8278870805253</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2186.117262053214</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1899.161753923644</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1627.135349509936</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1381.743594843348</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.323924157457</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5272,58 +5272,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>3144.542240397635</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.542240397635</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.215436132738</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,7 +5351,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
         <v>119.8337724793113</v>
@@ -5360,19 +5360,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2124.413812131771</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.458304002201</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,28 +5524,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5740,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1090.187678435286</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>917.6259669185112</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>751.7479741200339</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>581.9899703707711</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>405.2829163325273</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>239.691641358355</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1509.425967840165</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1282.006297154273</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,22 +5992,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>330.8229638057298</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
         <v>330.8229638057298</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,16 +6703,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2177.511286811513</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="38">
@@ -7159,43 +7159,43 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883955</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716205</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731432</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238804</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856366</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7335,49 +7335,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006609</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.36663430314</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.41112617357</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759862</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093275</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407383</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2231.279152143079</v>
+        <v>2324.430227182454</v>
       </c>
       <c r="C41" t="n">
-        <v>1793.136679326502</v>
+        <v>1886.287754365877</v>
       </c>
       <c r="D41" t="n">
-        <v>1357.226894500947</v>
+        <v>1450.377969540322</v>
       </c>
       <c r="E41" t="n">
-        <v>923.452149659242</v>
+        <v>1016.603224698617</v>
       </c>
       <c r="F41" t="n">
-        <v>495.5847200684498</v>
+        <v>588.7357951078247</v>
       </c>
       <c r="G41" t="n">
-        <v>94.18688869171365</v>
+        <v>187.3379637310886</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>3128.911340966338</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4109.091007536645</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4688.504965942682</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4345.630789443538</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3983.013839377364</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3578.158384788398</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.864846328333</v>
+        <v>3159.015921367708</v>
       </c>
       <c r="Y41" t="n">
-        <v>2657.578722627987</v>
+        <v>2750.729797667362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455166</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.980488291808</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438361</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765315</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381477</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647661</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463873</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624331</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590544</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848342</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942682</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391065</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721667</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721635</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783634</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.094065516828</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.226629755708</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534929</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7557,16 +7557,16 @@
         <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>108.0571324031504</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4345.630789443538</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>3983.013839377364</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3578.158384788398</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.5053054384693</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C46" t="n">
-        <v>789.9435939216943</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D46" t="n">
-        <v>624.065601123217</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3075973739543</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F46" t="n">
-        <v>277.6005433357104</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G46" t="n">
-        <v>112.0092683615381</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053214</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509936</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.323924157457</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>394.8579417904875</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>713.2395913281071</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11071,16 +11071,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>585.2666246525632</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442346</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.31929241554573</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>329.0704884999265</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>117.7661826744367</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>90.22000922290108</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>90.22000922290104</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>56.36113619101562</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627222</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>194.0192887222347</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>125.6469905667125</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>124.3589898130755</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>411.4732220987967</v>
+        <v>194.0192887222346</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606491.5084797811</v>
+        <v>606491.5084797812</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606491.5084797811</v>
+        <v>606491.5084797812</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646737.7084496375</v>
+        <v>646737.7084496378</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646737.7084496379</v>
+        <v>646737.7084496378</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606491.508479781</v>
+        <v>606491.5084797812</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606491.5084797811</v>
+        <v>606491.5084797812</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287653</v>
       </c>
       <c r="E2" t="n">
         <v>321146.4561425571</v>
@@ -26328,25 +26328,25 @@
         <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="H2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="I2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="J2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
+        <v>342457.4296892789</v>
+      </c>
+      <c r="L2" t="n">
         <v>342457.429689279</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>342457.4296892789</v>
-      </c>
-      <c r="M2" t="n">
-        <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
         <v>342457.429689279</v>
@@ -26355,7 +26355,7 @@
         <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>63769.04507708548</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="F4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933281</v>
@@ -26441,25 +26441,25 @@
         <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>63769.04507708547</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="P4" t="n">
-        <v>63769.04507708547</v>
+        <v>63769.04507708549</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106053.1064697108</v>
+        <v>-106053.106469711</v>
       </c>
       <c r="C6" t="n">
-        <v>117646.5921143341</v>
+        <v>117646.5921143339</v>
       </c>
       <c r="D6" t="n">
-        <v>117646.592114334</v>
+        <v>117646.5921143338</v>
       </c>
       <c r="E6" t="n">
-        <v>35446.38201139506</v>
+        <v>35341.19238914017</v>
       </c>
       <c r="F6" t="n">
-        <v>186112.1355831427</v>
+        <v>186006.9459608881</v>
       </c>
       <c r="G6" t="n">
-        <v>167648.6836215458</v>
+        <v>167625.4592821632</v>
       </c>
       <c r="H6" t="n">
-        <v>196738.4927941537</v>
+        <v>196715.2684547711</v>
       </c>
       <c r="I6" t="n">
-        <v>196738.4927941537</v>
+        <v>196715.2684547711</v>
       </c>
       <c r="J6" t="n">
-        <v>22087.14407644753</v>
+        <v>22063.91973706492</v>
       </c>
       <c r="K6" t="n">
-        <v>196738.4927941537</v>
+        <v>196715.268454771</v>
       </c>
       <c r="L6" t="n">
-        <v>196738.4927941536</v>
+        <v>196715.2684547711</v>
       </c>
       <c r="M6" t="n">
-        <v>70987.40445846308</v>
+        <v>70964.18011908021</v>
       </c>
       <c r="N6" t="n">
-        <v>196738.4927941537</v>
+        <v>196715.268454771</v>
       </c>
       <c r="O6" t="n">
-        <v>186112.1355831428</v>
+        <v>186006.9459608881</v>
       </c>
       <c r="P6" t="n">
-        <v>186112.1355831427</v>
+        <v>186006.9459608882</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>330.9903590252657</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>367.6387245651731</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>52.01701577190892</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060378</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>328.8330305885846</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>127.5668610920512</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>44.00051207685024</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11.64838566658636</v>
       </c>
       <c r="D8" t="n">
-        <v>270.9367814358973</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>48.19697732171677</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>540.0049805212332</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,22 +35415,22 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>394.8579417904875</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>713.2395913281071</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37703,13 +37703,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924961005</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,16 +37791,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>585.2666246525632</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
